--- a/data/trans_camb/IMC_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/IMC_R2-Provincia-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad</t>
+          <t>Población con obesidad</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/IMC_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/IMC_R2-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>8.128279870182343</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.476821607483079</v>
+        <v>7.476821607483084</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>11.80256841258549</v>
@@ -664,7 +664,7 @@
         <v>6.925611997513366</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>9.481296918989258</v>
+        <v>9.481296918989262</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.937597547485786</v>
+        <v>4.832974979975997</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.751532877206581</v>
+        <v>2.169072931742153</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.949639728368301</v>
+        <v>2.422317833139942</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.232782736937556</v>
+        <v>5.327436227815731</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3107603778827941</v>
+        <v>0.4795207355482727</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.080275979773208</v>
+        <v>6.425084116997354</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.352006269608706</v>
+        <v>7.097470484922653</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.201402858535523</v>
+        <v>2.853753217563176</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.921434610472779</v>
+        <v>6.052905485550326</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.02241656191158</v>
+        <v>17.57486706546916</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.91440930678427</v>
+        <v>14.29056179480927</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.1002840204708</v>
+        <v>13.21182097698175</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.77041900346643</v>
+        <v>18.19470027701412</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.91115002767594</v>
+        <v>11.3410113118875</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>16.16988270136212</v>
+        <v>16.12765556722875</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>15.76054528710371</v>
+        <v>15.96232502477052</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>11.10033596151863</v>
+        <v>11.16143045292635</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>13.29049105788266</v>
+        <v>13.17015365246449</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.8290104963606509</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.7625676884918258</v>
+        <v>0.7625676884918263</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.412788415955731</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.3572102454792563</v>
+        <v>0.3528692590095402</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1194906210232263</v>
+        <v>0.142745010594063</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.12935956731408</v>
+        <v>0.1663294100455223</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.5316956996570104</v>
+        <v>0.5137779219965734</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03255710756820222</v>
+        <v>0.02488574652216082</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.525969954813121</v>
+        <v>0.5466478638416575</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.662137721548657</v>
+        <v>0.6324667293212589</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2961740705727855</v>
+        <v>0.2512085794193463</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4990766547292804</v>
+        <v>0.5257767661311108</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.349353353409382</v>
+        <v>2.391625541945841</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.89545968072903</v>
+        <v>1.867387527115357</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.780645843545147</v>
+        <v>1.823977053082922</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.95956528942075</v>
+        <v>3.057937239050115</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.775271901577814</v>
+        <v>1.778249756168017</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.736467311203779</v>
+        <v>2.605802786018955</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.199433372879826</v>
+        <v>2.224991701097177</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.493411129066402</v>
+        <v>1.554091088997558</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.896878086208743</v>
+        <v>1.877371000829091</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>2.711491206524483</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.904156239218513</v>
+        <v>1.904156239218519</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.121160316792874</v>
+        <v>-4.250249888755619</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.304851853144967</v>
+        <v>-4.699017415124812</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.620317737302679</v>
+        <v>0.5112716445627056</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.362026086530104</v>
+        <v>-2.127392330374648</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.1565571733199697</v>
+        <v>-0.1788120746117695</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-7.439825634618797</v>
+        <v>-7.07208433909041</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.390594356648295</v>
+        <v>-1.891033694066465</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.7605723562695684</v>
+        <v>-0.7559683855697891</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.584186175769488</v>
+        <v>-1.25255315106873</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.156166166338321</v>
+        <v>5.709354532918177</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.008429921504158</v>
+        <v>5.241532389025021</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.22074690955627</v>
+        <v>11.76411721429065</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.240644605665065</v>
+        <v>7.947629746111626</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.818262090820914</v>
+        <v>10.19444527092097</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.454152421623305</v>
+        <v>1.472649701080924</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.375046056565513</v>
+        <v>4.955803258836686</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.298108774803852</v>
+        <v>6.167039705748304</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.402936106439696</v>
+        <v>5.291305936206535</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.1730118143325042</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1214982829105399</v>
+        <v>0.1214982829105403</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.25968635174527</v>
+        <v>-0.2669415286751161</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2658761196603074</v>
+        <v>-0.2834760141614893</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.07964687481050833</v>
+        <v>0.0137035358343487</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1183322222948242</v>
+        <v>-0.1180063289578372</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.006859153941316221</v>
+        <v>-0.02530891835172724</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3640232375109975</v>
+        <v>-0.3642229302857382</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.07987670564776647</v>
+        <v>-0.105922510011487</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.04630422439843965</v>
+        <v>-0.04181058488602337</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.09408142295471994</v>
+        <v>-0.07061872667363586</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4439324225080913</v>
+        <v>0.4737963417297285</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4302468647774267</v>
+        <v>0.4430526879343469</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.011032735026739</v>
+        <v>0.9610593202177408</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4852159257297158</v>
+        <v>0.5413010733365604</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6578802752731949</v>
+        <v>0.6615913301419326</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1053726920288856</v>
+        <v>0.09840652833071939</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3938084963833455</v>
+        <v>0.3501858324284722</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4410391230436373</v>
+        <v>0.4501516297466304</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3891615918653298</v>
+        <v>0.3855524462303779</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>8.90012779985895</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13.01762224407232</v>
+        <v>13.01762224407231</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>8.26460373191969</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.475310260851269</v>
+        <v>2.685461133169373</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.146955818002757</v>
+        <v>3.28496760617871</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.391476242797347</v>
+        <v>7.999355528405674</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.023747857585603</v>
+        <v>2.657777367283645</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.919940956327488</v>
+        <v>-2.120789576428855</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.828454834655219</v>
+        <v>2.88029414855132</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.983195755639628</v>
+        <v>3.96836705303722</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.783121834592935</v>
+        <v>1.733949188324732</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>6.52809037467487</v>
+        <v>6.670521671316185</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.98906194010967</v>
+        <v>13.17081614545868</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.79244735548775</v>
+        <v>13.57403915913093</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.33730660643809</v>
+        <v>18.61566436493403</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.80158823471336</v>
+        <v>14.57003367366416</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.275022805536471</v>
+        <v>9.362391649120919</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.09834583108662</v>
+        <v>13.6827260728254</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.2506595651024</v>
+        <v>11.96471994896454</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.885595963854056</v>
+        <v>9.545084045438633</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>14.05615594185414</v>
+        <v>14.32185502989991</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.5186672673046359</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.9260715210929175</v>
+        <v>0.9260715210929179</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.212866752922065</v>
+        <v>0.222314498656622</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2555748483621582</v>
+        <v>0.235798673984229</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.682959889612188</v>
+        <v>0.6838372729335421</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.09727772383345815</v>
+        <v>0.1483638636604062</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1872727916797605</v>
+        <v>-0.1277012055364264</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1438397673523366</v>
+        <v>0.170389967858907</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2980733577073739</v>
+        <v>0.2771067719065111</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1371835168391276</v>
+        <v>0.1303329415892683</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4836374364112205</v>
+        <v>0.4850269759300953</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.064855031240242</v>
+        <v>2.100972163805029</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.148104182216104</v>
+        <v>2.123538226008205</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.972048748346459</v>
+        <v>2.923249840047204</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.158041017932406</v>
+        <v>1.262788547123347</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6902588389708325</v>
+        <v>0.8359997152785767</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.110775621578173</v>
+        <v>1.229211911082909</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.247994108655547</v>
+        <v>1.199195850445922</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.044276476304968</v>
+        <v>1.006171634337369</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.463366599262443</v>
+        <v>1.448855808949661</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>12.80723913431804</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.265885827320725</v>
+        <v>3.265885827320727</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>13.47671167403625</v>
@@ -1297,7 +1297,7 @@
         <v>8.094447399606732</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.83541974224723</v>
+        <v>4.835419742247227</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>11.53398838719091</v>
@@ -1306,7 +1306,7 @@
         <v>10.45071416706958</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.130711599294466</v>
+        <v>4.130711599294469</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.755184563998156</v>
+        <v>4.601749440162924</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.499578502692178</v>
+        <v>7.726095326955644</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.928921238731629</v>
+        <v>-1.54645454689615</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7.227699269041868</v>
+        <v>7.340305767676654</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.221539333515435</v>
+        <v>2.72562542597828</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.06221601075741762</v>
+        <v>0.1100800472678608</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>7.508078853959463</v>
+        <v>7.641085692412256</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>6.736760579226102</v>
+        <v>6.400480741295592</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5279845408396665</v>
+        <v>0.8302939410435157</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.03684928690227</v>
+        <v>15.01327051548526</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.27935401963102</v>
+        <v>18.34596538711426</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.86032946379119</v>
+        <v>8.811588664764253</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18.86111674274309</v>
+        <v>19.62599914233581</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>14.12156585251246</v>
+        <v>13.55775749000168</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.662417803354399</v>
+        <v>10.17772538724006</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>15.34836483304521</v>
+        <v>15.60883858005073</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>14.55637820933407</v>
+        <v>14.39565354696327</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.074476607139694</v>
+        <v>7.942397403581561</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>1.392806906996462</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3551700948228114</v>
+        <v>0.3551700948228118</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>1.123933778611946</v>
@@ -1402,7 +1402,7 @@
         <v>0.6750625131457538</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4032654043158769</v>
+        <v>0.4032654043158767</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1.086200922424419</v>
@@ -1411,7 +1411,7 @@
         <v>0.9841847405422606</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3890053118490827</v>
+        <v>0.389005311849083</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.4078172590184722</v>
+        <v>0.3935207441605714</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.6644938339401022</v>
+        <v>0.6738989045253384</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1768886709842397</v>
+        <v>-0.1413101313378504</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.5068616882542354</v>
+        <v>0.5117052743569896</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1998672548037777</v>
+        <v>0.1818351020399017</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.01060850164807429</v>
+        <v>-0.01215474003532788</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6103176090738898</v>
+        <v>0.6007026088223916</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.5305610392952897</v>
+        <v>0.5303252512449864</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.03492161248447995</v>
+        <v>0.05968072535110568</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.102984839151093</v>
+        <v>2.20703453125772</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.556404764116171</v>
+        <v>2.68125356894199</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.183005098888017</v>
+        <v>1.275299084853396</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.937924675994274</v>
+        <v>2.064147153659321</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.349807020720742</v>
+        <v>1.466280937552287</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9784124633361733</v>
+        <v>1.081604754037585</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.733459984234372</v>
+        <v>1.681659170405271</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.584173023487628</v>
+        <v>1.622086768095364</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8801119298364517</v>
+        <v>0.8584424517075177</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-1.385458403691997</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-4.898525427280909</v>
+        <v>-4.89852542728091</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.8973233840530892</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.037407725812967</v>
+        <v>-4.220940778962545</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-8.820810693201739</v>
+        <v>-8.628397264473735</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-12.33111564879276</v>
+        <v>-11.27534361147269</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-10.15578356918724</v>
+        <v>-9.029520835312086</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.02071035143174</v>
+        <v>-4.651016717555764</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-11.94101749022357</v>
+        <v>-12.4789773357317</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.914239947450192</v>
+        <v>-4.419772218572829</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.20793673533367</v>
+        <v>-4.404406987508649</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-9.775290419814899</v>
+        <v>-9.898421517085145</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.5468387013654</v>
+        <v>12.223943553236</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.394102131369357</v>
+        <v>5.789165684406631</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8280849422353046</v>
+        <v>1.284567171014357</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.432894537992722</v>
+        <v>6.737879463744679</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>12.08299281951604</v>
+        <v>11.84328586302674</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.7423157480045837</v>
+        <v>0.5012419511120607</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>7.064629770114325</v>
+        <v>6.984340812260728</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.437302832587688</v>
+        <v>6.126190419047489</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.9069962002826726</v>
+        <v>-0.8352487771947602</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.08735699996532105</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.3088656320830503</v>
+        <v>-0.3088656320830505</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.04446987005636982</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2712087402021626</v>
+        <v>-0.2355322711852972</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4376639595033335</v>
+        <v>-0.4469741167128798</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5970504680593655</v>
+        <v>-0.5647648896286835</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.403248666980847</v>
+        <v>-0.3626700953742885</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1711620342034187</v>
+        <v>-0.1831103539103298</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4844548445964907</v>
+        <v>-0.5109937829622805</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1980149739766966</v>
+        <v>-0.2152840113132428</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2069597609513212</v>
+        <v>-0.2057443084119089</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4592727875995394</v>
+        <v>-0.4625538964382397</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8628140735846729</v>
+        <v>0.9774775892498704</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4532468761353977</v>
+        <v>0.469155631594017</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.07463314312123061</v>
+        <v>0.1449189520872471</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3834100507185089</v>
+        <v>0.4488072795996133</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.768408657851427</v>
+        <v>0.7116603249424793</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04455745609130173</v>
+        <v>0.03632025291108219</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4712134358461804</v>
+        <v>0.4739989260384388</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4255687966052263</v>
+        <v>0.4042236530258551</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.05300857695433667</v>
+        <v>-0.06205988410912566</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>6.548397102554596</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>3.032437070778951</v>
+        <v>3.032437070778948</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>11.83509197416468</v>
@@ -1734,7 +1734,7 @@
         <v>8.382086977181286</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>7.078076373675976</v>
+        <v>7.078076373675973</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>7.198661421999699</v>
+        <v>7.221609500209173</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>4.088507595764386</v>
+        <v>4.23203164283229</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5.868784232094831</v>
+        <v>5.648463477017359</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4.279882701566478</v>
+        <v>3.992442039027701</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.9476767220387766</v>
+        <v>0.4471460281529694</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.907970594390082</v>
+        <v>-2.393646764282822</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>7.196844235994522</v>
+        <v>7.780806860278587</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>3.933030985111887</v>
+        <v>4.253658985924485</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>3.547767718915317</v>
+        <v>2.912335058092525</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>19.65039262226402</v>
+        <v>19.64781167259372</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>16.37694349944297</v>
+        <v>15.64528033615802</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>16.68094238676832</v>
+        <v>16.95111253157409</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>17.15567154101818</v>
+        <v>16.51375891334554</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>13.4864951067644</v>
+        <v>12.82048887081849</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>8.113660452049878</v>
+        <v>8.250010937648295</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>15.90720049368826</v>
+        <v>16.82162632884108</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>12.87561672698426</v>
+        <v>12.97133246599199</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>11.37465218805913</v>
+        <v>10.6360856857848</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.5127615362668376</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2374500303957644</v>
+        <v>0.2374500303957642</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1.090768173904194</v>
@@ -1839,7 +1839,7 @@
         <v>0.7725257839621872</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.6523430876348455</v>
+        <v>0.6523430876348453</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.6130243542059254</v>
+        <v>0.6280497266226437</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.3296001636726609</v>
+        <v>0.3428449053882905</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.4705750000662321</v>
+        <v>0.4466092217308399</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.2390035622110666</v>
+        <v>0.2271380515812619</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.01644068434959918</v>
+        <v>0.02777093488865542</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1168798254201673</v>
+        <v>-0.1525542308973984</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5592968724572873</v>
+        <v>0.5774616815602298</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.2883521401186985</v>
+        <v>0.3136801159158915</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.2532021155663763</v>
+        <v>0.216909652172756</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.107945143657995</v>
+        <v>2.955663448606358</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.539692769428203</v>
+        <v>2.421525491024559</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.619362857993724</v>
+        <v>2.566779733194183</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.70017641941203</v>
+        <v>1.600564150072751</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.341942635429935</v>
+        <v>1.282335868666911</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.8319144008210118</v>
+        <v>0.8426402276513999</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.818972790377674</v>
+        <v>1.861984519007988</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.423093736526851</v>
+        <v>1.408082580933802</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.261255943983816</v>
+        <v>1.15821910132474</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>-3.10153301365381</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0.8818422854913965</v>
+        <v>0.881842285491391</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>3.236628936452973</v>
@@ -1948,7 +1948,7 @@
         <v>-0.3223199247615188</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>2.999372759886371</v>
+        <v>2.999372759886368</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.8930439451695145</v>
+        <v>-1.317653304491066</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.196264837035939</v>
+        <v>-1.545190437640587</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.441190249657579</v>
+        <v>0.8523503246428681</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.4000577084958555</v>
+        <v>-0.3889418498206798</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-7.440978421391817</v>
+        <v>-7.32178900396381</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-3.409571473157091</v>
+        <v>-3.027506194184989</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.09072032669902326</v>
+        <v>0.1882520718550148</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.825678697172252</v>
+        <v>-3.253133651327819</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.3691879119389477</v>
+        <v>0.03264867715393688</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>6.670517952541559</v>
+        <v>6.288528548374606</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6.273817502958473</v>
+        <v>6.624715334399712</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9.200974969385266</v>
+        <v>9.210638422736144</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8.172554535720515</v>
+        <v>7.826985776601209</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.9538184254103423</v>
+        <v>0.9913601688200766</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>4.284864157658537</v>
+        <v>4.353576406323747</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>6.149523243665144</v>
+        <v>6.093430954725392</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.793524095519448</v>
+        <v>2.363469132325199</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.691905003984607</v>
+        <v>5.792832389875052</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>-0.1851731086493591</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.05264927912230315</v>
+        <v>0.05264927912230282</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.2261059123878553</v>
@@ -2053,7 +2053,7 @@
         <v>-0.02251677350102903</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.2095315613190438</v>
+        <v>0.2095315613190436</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.0717401640254494</v>
+        <v>-0.1052414717337258</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.08954696547783118</v>
+        <v>-0.1228405657706036</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1119382442427011</v>
+        <v>0.06223691123298554</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.02619139271725624</v>
+        <v>-0.02242850270528463</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3918251144890058</v>
+        <v>-0.3957377031913408</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1703060721124462</v>
+        <v>-0.1655111425986091</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.005834381476572607</v>
+        <v>0.007527180537310688</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.184623140954861</v>
+        <v>-0.2066798364555621</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.02135920303011498</v>
+        <v>-0.0001454247333440936</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.6540972961659237</v>
+        <v>0.6305855759118514</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.6320438069637104</v>
+        <v>0.6653738086388012</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.9543935748282522</v>
+        <v>0.9188188047648855</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5675442952042326</v>
+        <v>0.51567578472064</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.08839042726878964</v>
+        <v>0.065767171217628</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2985035027424283</v>
+        <v>0.2937967032160319</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4724166056890324</v>
+        <v>0.4724270931643524</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2284540826073912</v>
+        <v>0.1869387182218167</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4418843552404041</v>
+        <v>0.4455850234628049</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>2.519942247859697</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-0.3017459270508394</v>
+        <v>-0.3017459270508366</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>4.533539738663836</v>
@@ -2153,7 +2153,7 @@
         <v>5.150449166149676</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1.465016346278128</v>
+        <v>1.465016346278131</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>1.490075063637941</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-5.111567389688927</v>
+        <v>-5.110331572033237</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.369494445102497</v>
+        <v>-1.173845505300836</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-4.062813365613946</v>
+        <v>-3.965714951320299</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.5665175947533643</v>
+        <v>0.6543605741812629</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.080951255086835</v>
+        <v>1.4486567140915</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-2.224442308806101</v>
+        <v>-1.852592797627513</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.299659135944407</v>
+        <v>-1.480879601347859</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>1.037206428823601</v>
+        <v>0.9043932065995577</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.97209286275654</v>
+        <v>-2.137591414404983</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.266381399256949</v>
+        <v>2.514899445539907</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>6.493811153741677</v>
+        <v>6.461168353196922</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.36387867547037</v>
+        <v>3.553032479720214</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>8.407729974155151</v>
+        <v>8.500929546435772</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>9.296700717378013</v>
+        <v>9.221812429137703</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>5.190948412305075</v>
+        <v>4.623225660698695</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>4.076896333528721</v>
+        <v>4.256845999691654</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>6.602783535762953</v>
+        <v>6.653492676408962</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.125010711407387</v>
+        <v>3.092956389639454</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.1623879986727797</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.01944485721570257</v>
+        <v>-0.01944485721570239</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.2989624298501092</v>
@@ -2258,7 +2258,7 @@
         <v>0.3396442705463957</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.09660990570307094</v>
+        <v>0.09660990570307113</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.09715777110376361</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3028584638667457</v>
+        <v>-0.3036072131391883</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.07916359784372295</v>
+        <v>-0.06693275645931744</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2428472890473712</v>
+        <v>-0.2240440110899973</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.03165663287059317</v>
+        <v>0.03679628311135368</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.05905548699090333</v>
+        <v>0.08083577297824507</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1296264273457222</v>
+        <v>-0.11277943954087</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.07658174576211102</v>
+        <v>-0.09177133802090168</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.06288128739933115</v>
+        <v>0.05372781975492109</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1170716707979495</v>
+        <v>-0.1206531934353848</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1716663106965298</v>
+        <v>0.1809755678660119</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.4871119880792066</v>
+        <v>0.4828341388606428</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2479395168103895</v>
+        <v>0.2637636089921385</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.6276946871699847</v>
+        <v>0.6272685328922259</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.6898083020330273</v>
+        <v>0.6969048470170252</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.3850811618458741</v>
+        <v>0.3514334908413849</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2940321589676774</v>
+        <v>0.3020254037700159</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.4668571618982897</v>
+        <v>0.4742730852075783</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.2283732641994589</v>
+        <v>0.2201504599980883</v>
       </c>
     </row>
     <row r="52">
@@ -2376,7 +2376,7 @@
         <v>4.275721157986381</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>3.533640352704837</v>
+        <v>3.533640352704831</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>2.514526633017914</v>
+        <v>2.54110746465784</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>3.141667491244544</v>
+        <v>3.161078775353846</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>3.134136776459401</v>
+        <v>2.97809138124451</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>4.046401990664843</v>
+        <v>4.323610023408964</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>2.05480264434186</v>
+        <v>2.056155728389951</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>0.6728477291334729</v>
+        <v>0.6704999363431697</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>3.89905533279656</v>
+        <v>3.88850814562309</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>2.965458408156602</v>
+        <v>3.007435486287082</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>2.310561871322748</v>
+        <v>2.271462584534888</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>6.170389399564115</v>
+        <v>6.14285701792617</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>6.490439398671017</v>
+        <v>6.720550383667538</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>6.6643729759952</v>
+        <v>6.516618516899306</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>7.922147993249423</v>
+        <v>8.022244942174432</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>5.730316037188698</v>
+        <v>5.707746809190362</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>3.827033278933524</v>
+        <v>3.907617957349591</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>6.611119122770141</v>
+        <v>6.449873881745809</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>5.594100152849929</v>
+        <v>5.470949462109291</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>4.756371642159942</v>
+        <v>4.744521324830817</v>
       </c>
     </row>
     <row r="55">
@@ -2481,7 +2481,7 @@
         <v>0.3149960192242685</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.2603262942891397</v>
+        <v>0.2603262942891392</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1881193196008929</v>
+        <v>0.1891410326471307</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.2408106785054364</v>
+        <v>0.2504400558226751</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.2444110002021452</v>
+        <v>0.2299786429630817</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.2566542104091246</v>
+        <v>0.2705247408466147</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.1286164399837829</v>
+        <v>0.1310313100546361</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.04324937362791972</v>
+        <v>0.04362661070942792</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2755166626066136</v>
+        <v>0.274231335701184</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.2094883514325572</v>
+        <v>0.2094640174854442</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.1632714114653692</v>
+        <v>0.1591311238070864</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.5336561163842779</v>
+        <v>0.5354528892778747</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.5668112067916181</v>
+        <v>0.6022048123110388</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.5849129934277914</v>
+        <v>0.5780744511310137</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.5599784374872564</v>
+        <v>0.5636948399841708</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.4048816944934248</v>
+        <v>0.4108182986089896</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.2755685158393713</v>
+        <v>0.2863602488402434</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.5100042748376222</v>
+        <v>0.4951833852744326</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.4348872154087809</v>
+        <v>0.4193347248370475</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.3698366065599244</v>
+        <v>0.3652788258352332</v>
       </c>
     </row>
     <row r="58">
